--- a/biology/Zoologie/Deliochus_zelivira/Deliochus_zelivira.xlsx
+++ b/biology/Zoologie/Deliochus_zelivira/Deliochus_zelivira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deliochus zelivira est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deliochus zelivira est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre au Queensland, en Nouvelle-Galles du Sud, dans le Territoire de la capitale australienne, au Victoria, en Tasmanie, et dans le Sud-Ouest de l'Australie-Occidentale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre au Queensland, en Nouvelle-Galles du Sud, dans le Territoire de la capitale australienne, au Victoria, en Tasmanie, et dans le Sud-Ouest de l'Australie-Occidentale.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle syntype mesure 3,5 mm et la femelle syntype 7,0 mm[3].
-Le mâle décrit par Kallal et Hormiga en 2018 mesure 3,30 mm et la femelle 7,57 mm, les mâles mesurent de 3,30 à 4,41 mm et les femelles de 5,67 à 9,28 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle syntype mesure 3,5 mm et la femelle syntype 7,0 mm.
+Le mâle décrit par Kallal et Hormiga en 2018 mesure 3,30 mm et la femelle 7,57 mm, les mâles mesurent de 3,30 à 4,41 mm et les femelles de 5,67 à 9,28 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Meta zelivira par Keyserling en 1887. Elle est placée dans le genre Deliochus par Simon en 1894[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Meta zelivira par Keyserling en 1887. Elle est placée dans le genre Deliochus par Simon en 1894.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Keyserling, 1887 : Die Arachniden Australiens. Nürnberg, vol. 2, p. 153-232 (texte intégral).</t>
         </is>
